--- a/data/pca/factorExposure/factorExposure_2017-12-20.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-12-20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.009323315428688094</v>
+        <v>0.01349594778828153</v>
       </c>
       <c r="C2">
-        <v>-0.0007428075752816546</v>
+        <v>-0.03796630027212611</v>
       </c>
       <c r="D2">
-        <v>0.02349547162685537</v>
+        <v>0.02842694142708043</v>
       </c>
       <c r="E2">
-        <v>0.06078765405652412</v>
+        <v>-0.02692687937290145</v>
       </c>
       <c r="F2">
-        <v>-0.005707171662371132</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.03113793117175128</v>
+      </c>
+      <c r="G2">
+        <v>-0.01082615132974233</v>
+      </c>
+      <c r="H2">
+        <v>-0.01113372209669893</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.07904367263986592</v>
+        <v>0.06716686254795044</v>
       </c>
       <c r="C3">
-        <v>-0.002650806733240322</v>
+        <v>-0.07917595246819092</v>
       </c>
       <c r="D3">
-        <v>-0.04511468661455162</v>
+        <v>0.01307636672636918</v>
       </c>
       <c r="E3">
-        <v>0.2423344498420076</v>
+        <v>-0.07502355696874569</v>
       </c>
       <c r="F3">
-        <v>-0.060251191298955</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.07887435699727907</v>
+      </c>
+      <c r="G3">
+        <v>-0.06154765864347677</v>
+      </c>
+      <c r="H3">
+        <v>-0.001397925905479637</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.03378087339868151</v>
+        <v>0.05767346539791811</v>
       </c>
       <c r="C4">
-        <v>0.02208582893107208</v>
+        <v>-0.06137073746644117</v>
       </c>
       <c r="D4">
-        <v>0.03507453453904305</v>
+        <v>0.02146690580084993</v>
       </c>
       <c r="E4">
-        <v>0.03384984167905153</v>
+        <v>0.002791131678922194</v>
       </c>
       <c r="F4">
-        <v>0.02924146991445209</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.01921878442111658</v>
+      </c>
+      <c r="G4">
+        <v>-0.03638076984013684</v>
+      </c>
+      <c r="H4">
+        <v>0.03057351478331933</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.05921699024002679</v>
+        <v>0.03156248768148374</v>
       </c>
       <c r="C6">
-        <v>0.01488318498913366</v>
+        <v>-0.05667952524494176</v>
       </c>
       <c r="D6">
-        <v>0.05042309652368929</v>
+        <v>0.01607928171199348</v>
       </c>
       <c r="E6">
-        <v>0.02714588448617036</v>
+        <v>-0.003172786307901848</v>
       </c>
       <c r="F6">
-        <v>0.04961657827592336</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.01725299808513656</v>
+      </c>
+      <c r="G6">
+        <v>-0.01910760744039714</v>
+      </c>
+      <c r="H6">
+        <v>0.008571292891228823</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02541551418014094</v>
+        <v>0.01896374011279566</v>
       </c>
       <c r="C7">
-        <v>0.06967994624620749</v>
+        <v>-0.03714415234148251</v>
       </c>
       <c r="D7">
-        <v>-0.007559834426198889</v>
+        <v>0.01220988872581304</v>
       </c>
       <c r="E7">
-        <v>0.009678203572240843</v>
+        <v>0.01655778291066563</v>
       </c>
       <c r="F7">
-        <v>-0.01417627396490533</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.00776600118894756</v>
+      </c>
+      <c r="G7">
+        <v>-0.0722161913827027</v>
+      </c>
+      <c r="H7">
+        <v>-0.0008067079659181229</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.01227755694018798</v>
+        <v>-0.004919020349609607</v>
       </c>
       <c r="C8">
-        <v>0.008492081525898008</v>
+        <v>-0.01279355005048721</v>
       </c>
       <c r="D8">
-        <v>0.01608503608972322</v>
+        <v>0.003804239277205587</v>
       </c>
       <c r="E8">
-        <v>0.03298257318027904</v>
+        <v>-0.01307415751294605</v>
       </c>
       <c r="F8">
-        <v>-0.01315846082218467</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.02414251134714488</v>
+      </c>
+      <c r="G8">
+        <v>-0.02523044878792188</v>
+      </c>
+      <c r="H8">
+        <v>0.02110172889673093</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.02987470987569105</v>
+        <v>0.02905740685710349</v>
       </c>
       <c r="C9">
-        <v>0.01512309219726284</v>
+        <v>-0.04205807368408357</v>
       </c>
       <c r="D9">
-        <v>0.02328546114852524</v>
+        <v>0.01499877718712341</v>
       </c>
       <c r="E9">
-        <v>0.0531462307312264</v>
+        <v>0.001693979494984539</v>
       </c>
       <c r="F9">
-        <v>0.02795831903035933</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.01860282144490641</v>
+      </c>
+      <c r="G9">
+        <v>-0.02756300215101935</v>
+      </c>
+      <c r="H9">
+        <v>-0.004397091159362348</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.08817533791431541</v>
+        <v>0.0830033038381099</v>
       </c>
       <c r="C10">
-        <v>-0.03301926172248973</v>
+        <v>0.184053747913917</v>
       </c>
       <c r="D10">
-        <v>-0.1561998349120381</v>
+        <v>-0.01958858226323252</v>
       </c>
       <c r="E10">
-        <v>0.02256906315714024</v>
+        <v>-0.01656052909291272</v>
       </c>
       <c r="F10">
-        <v>-0.0008656068410107468</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.01395702882155667</v>
+      </c>
+      <c r="G10">
+        <v>-0.03461340202599505</v>
+      </c>
+      <c r="H10">
+        <v>-0.0284712171552245</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.02551575159927573</v>
+        <v>0.03635162992442102</v>
       </c>
       <c r="C11">
-        <v>0.003243997658834129</v>
+        <v>-0.05301785991101606</v>
       </c>
       <c r="D11">
-        <v>0.04395450470757552</v>
+        <v>0.0006742432837037069</v>
       </c>
       <c r="E11">
-        <v>0.01564390079716044</v>
+        <v>0.006987016698911355</v>
       </c>
       <c r="F11">
-        <v>0.02400686750931174</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.0263793744891919</v>
+      </c>
+      <c r="G11">
+        <v>-0.006994301083347756</v>
+      </c>
+      <c r="H11">
+        <v>-0.0005781213708712713</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.03245807882550673</v>
+        <v>0.03569233241792945</v>
       </c>
       <c r="C12">
-        <v>0.01084673911174297</v>
+        <v>-0.04574397292675713</v>
       </c>
       <c r="D12">
-        <v>0.04190772675018126</v>
+        <v>0.005049133574059515</v>
       </c>
       <c r="E12">
-        <v>-0.008784009361406064</v>
+        <v>0.0119606922356696</v>
       </c>
       <c r="F12">
-        <v>0.003228533770006499</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.006893651049765983</v>
+      </c>
+      <c r="G12">
+        <v>-0.01256053498341349</v>
+      </c>
+      <c r="H12">
+        <v>-0.003337653675157844</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.02122724799611897</v>
+        <v>0.01220471109033704</v>
       </c>
       <c r="C13">
-        <v>-2.579235452459659e-05</v>
+        <v>-0.03116818536889771</v>
       </c>
       <c r="D13">
-        <v>0.01507156484060123</v>
+        <v>0.02423749528376126</v>
       </c>
       <c r="E13">
-        <v>0.04209647268386631</v>
+        <v>-0.0176894927038085</v>
       </c>
       <c r="F13">
-        <v>0.01567413258834504</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.03124844786057998</v>
+      </c>
+      <c r="G13">
+        <v>-0.0223239171974535</v>
+      </c>
+      <c r="H13">
+        <v>0.01166462607763362</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01496802827449169</v>
+        <v>0.008635072911691468</v>
       </c>
       <c r="C14">
-        <v>0.01580603784774596</v>
+        <v>-0.02449170034561499</v>
       </c>
       <c r="D14">
-        <v>0.007681251508834054</v>
+        <v>0.008061722674017465</v>
       </c>
       <c r="E14">
-        <v>0.01889569592262837</v>
+        <v>0.006120712444978527</v>
       </c>
       <c r="F14">
-        <v>-0.02158853864999165</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.0002718936419861694</v>
+      </c>
+      <c r="G14">
+        <v>-0.03047102968243156</v>
+      </c>
+      <c r="H14">
+        <v>0.01613902774430971</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02427741045639152</v>
+        <v>0.03241608385877105</v>
       </c>
       <c r="C16">
-        <v>0.008869354020259419</v>
+        <v>-0.04237901399318053</v>
       </c>
       <c r="D16">
-        <v>0.04085958181172124</v>
+        <v>0.000419946905727786</v>
       </c>
       <c r="E16">
-        <v>0.01597037094054748</v>
+        <v>0.004441994493162305</v>
       </c>
       <c r="F16">
-        <v>0.02867211830414601</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.01421955972315924</v>
+      </c>
+      <c r="G16">
+        <v>-0.01233959077250568</v>
+      </c>
+      <c r="H16">
+        <v>0.001742430232339558</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.02413457258548066</v>
+        <v>0.02844871186621372</v>
       </c>
       <c r="C19">
-        <v>0.006293011703962209</v>
+        <v>-0.05346529926067119</v>
       </c>
       <c r="D19">
-        <v>0.03561277033195699</v>
+        <v>0.01457278498948991</v>
       </c>
       <c r="E19">
-        <v>0.05085400819353906</v>
+        <v>-0.03117310341205434</v>
       </c>
       <c r="F19">
-        <v>0.03579365014883325</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.04162303767268596</v>
+      </c>
+      <c r="G19">
+        <v>-0.03144280073833256</v>
+      </c>
+      <c r="H19">
+        <v>0.03577063068924809</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.005266846416660533</v>
+        <v>0.01072227621425525</v>
       </c>
       <c r="C20">
-        <v>0.002841042200127458</v>
+        <v>-0.03452412022497451</v>
       </c>
       <c r="D20">
-        <v>0.000132373265748069</v>
+        <v>0.01277502472556219</v>
       </c>
       <c r="E20">
-        <v>0.02986681063078181</v>
+        <v>-0.01726261435130248</v>
       </c>
       <c r="F20">
-        <v>-0.007032348645428846</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.01003325114443191</v>
+      </c>
+      <c r="G20">
+        <v>-0.02230348833026065</v>
+      </c>
+      <c r="H20">
+        <v>0.01088025174515188</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.03586858747228905</v>
+        <v>0.01195746942143713</v>
       </c>
       <c r="C21">
-        <v>0.02633118538239125</v>
+        <v>-0.03363647739149492</v>
       </c>
       <c r="D21">
-        <v>0.01617658239092827</v>
+        <v>0.01560953938323531</v>
       </c>
       <c r="E21">
-        <v>0.02498401967431616</v>
+        <v>-0.02245881669157526</v>
       </c>
       <c r="F21">
-        <v>0.01880967306608964</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.02124401904310508</v>
+      </c>
+      <c r="G21">
+        <v>-0.04548923224036502</v>
+      </c>
+      <c r="H21">
+        <v>0.01547229528143657</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,70 +1295,94 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02347460341891477</v>
+        <v>0.02660244480992721</v>
       </c>
       <c r="C24">
-        <v>0.006014339806486332</v>
+        <v>-0.04627347859002947</v>
       </c>
       <c r="D24">
-        <v>0.03492667255314497</v>
+        <v>0.005689113192221038</v>
       </c>
       <c r="E24">
-        <v>0.01476351295995102</v>
+        <v>0.009843804535026417</v>
       </c>
       <c r="F24">
-        <v>0.02406654940536348</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.02215957679392851</v>
+      </c>
+      <c r="G24">
+        <v>-0.01064550146358548</v>
+      </c>
+      <c r="H24">
+        <v>-0.003751524912715694</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03755391955762792</v>
+        <v>0.04427900931288832</v>
       </c>
       <c r="C25">
-        <v>0.004677483603404179</v>
+        <v>-0.05163572209960331</v>
       </c>
       <c r="D25">
-        <v>0.03684574864701107</v>
+        <v>0.009466643072084039</v>
       </c>
       <c r="E25">
-        <v>0.02797988465382757</v>
+        <v>0.01632500246987795</v>
       </c>
       <c r="F25">
-        <v>0.02964496307185818</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.01792795304773367</v>
+      </c>
+      <c r="G25">
+        <v>-0.01570637389851445</v>
+      </c>
+      <c r="H25">
+        <v>0.005040814443279936</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.002964234746901463</v>
+        <v>0.002760613341077071</v>
       </c>
       <c r="C26">
-        <v>0.008644382199351361</v>
+        <v>-0.008970728307201544</v>
       </c>
       <c r="D26">
-        <v>-0.002357339294295305</v>
+        <v>0.02390506598089159</v>
       </c>
       <c r="E26">
-        <v>0.03113680094425892</v>
+        <v>-0.003451595513233179</v>
       </c>
       <c r="F26">
-        <v>-0.02007057010171989</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.007782143579328736</v>
+      </c>
+      <c r="G26">
+        <v>-0.02176240863734948</v>
+      </c>
+      <c r="H26">
+        <v>0.00768893678648701</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1237,150 +1399,198 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1336186669620814</v>
+        <v>0.1078622747122892</v>
       </c>
       <c r="C28">
-        <v>-0.04664728207462021</v>
+        <v>0.2251065647945487</v>
       </c>
       <c r="D28">
-        <v>-0.2249198262401905</v>
+        <v>-0.01105786442454508</v>
       </c>
       <c r="E28">
-        <v>0.01027141412383719</v>
+        <v>-0.009349426416559593</v>
       </c>
       <c r="F28">
-        <v>-0.00887312042111796</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.01095808846444727</v>
+      </c>
+      <c r="G28">
+        <v>-0.05080318353797353</v>
+      </c>
+      <c r="H28">
+        <v>-0.01223114587528645</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.01465224470457259</v>
+        <v>0.01263677776189485</v>
       </c>
       <c r="C29">
-        <v>0.011804359656882</v>
+        <v>-0.01859709816821502</v>
       </c>
       <c r="D29">
-        <v>0.008310271690282754</v>
+        <v>0.00686834252200077</v>
       </c>
       <c r="E29">
-        <v>0.01879074691183291</v>
+        <v>0.00383032109696771</v>
       </c>
       <c r="F29">
-        <v>-0.02103270918979946</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.006417725395902852</v>
+      </c>
+      <c r="G29">
+        <v>-0.02373287218772072</v>
+      </c>
+      <c r="H29">
+        <v>0.02193764112881209</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.04563275882282435</v>
+        <v>0.03925427562640858</v>
       </c>
       <c r="C30">
-        <v>-0.04051172488402099</v>
+        <v>-0.07343070911715202</v>
       </c>
       <c r="D30">
-        <v>0.07810291636702567</v>
+        <v>0.02676415671155666</v>
       </c>
       <c r="E30">
-        <v>0.06523247827067592</v>
+        <v>-0.01588383180055273</v>
       </c>
       <c r="F30">
-        <v>0.007872186970334193</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.04468606772546305</v>
+      </c>
+      <c r="G30">
+        <v>0.01434352205010577</v>
+      </c>
+      <c r="H30">
+        <v>0.01000510184661183</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04413233289534429</v>
+        <v>0.04202804055084997</v>
       </c>
       <c r="C31">
-        <v>0.01791147460630608</v>
+        <v>-0.02757262591131658</v>
       </c>
       <c r="D31">
-        <v>0.02262686027409281</v>
+        <v>0.002466713563931406</v>
       </c>
       <c r="E31">
-        <v>-0.001714321025956381</v>
+        <v>0.01744553846991272</v>
       </c>
       <c r="F31">
-        <v>-0.01503414802327395</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.02846941424074775</v>
+      </c>
+      <c r="G31">
+        <v>-0.02441061299688741</v>
+      </c>
+      <c r="H31">
+        <v>0.00290518400152827</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.002549269800688998</v>
+        <v>0.007985233139894486</v>
       </c>
       <c r="C32">
-        <v>0.0316527596718188</v>
+        <v>-0.03591207237961545</v>
       </c>
       <c r="D32">
-        <v>0.02098445803836706</v>
+        <v>-0.005271263177111479</v>
       </c>
       <c r="E32">
-        <v>0.01554524133768906</v>
+        <v>-0.01401887343597253</v>
       </c>
       <c r="F32">
-        <v>0.008336880382986758</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.07604578398687155</v>
+      </c>
+      <c r="G32">
+        <v>-0.04974895274644917</v>
+      </c>
+      <c r="H32">
+        <v>0.0688766959591828</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.03257609794690978</v>
+        <v>0.03004082059777149</v>
       </c>
       <c r="C33">
-        <v>-0.01377235272068052</v>
+        <v>-0.05065345668802126</v>
       </c>
       <c r="D33">
-        <v>0.03951405312743781</v>
+        <v>0.01347955671374917</v>
       </c>
       <c r="E33">
-        <v>0.04200065057242541</v>
+        <v>-0.01435421653447686</v>
       </c>
       <c r="F33">
-        <v>-0.01739378930454891</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.02392095766251154</v>
+      </c>
+      <c r="G33">
+        <v>-0.01391439641786531</v>
+      </c>
+      <c r="H33">
+        <v>-0.0160417072567582</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.02579176875231673</v>
+        <v>0.04692836112231541</v>
       </c>
       <c r="C34">
-        <v>0.01757778604483161</v>
+        <v>-0.05260761226763495</v>
       </c>
       <c r="D34">
-        <v>0.04167811132307517</v>
+        <v>-0.006750522345704064</v>
       </c>
       <c r="E34">
-        <v>0.01420609148772981</v>
+        <v>0.01651950183969711</v>
       </c>
       <c r="F34">
-        <v>0.02560242883290246</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.02282888096824084</v>
+      </c>
+      <c r="G34">
+        <v>-0.02067132976046397</v>
+      </c>
+      <c r="H34">
+        <v>-0.0005058183566273615</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01668734220105896</v>
+        <v>0.009950403070799106</v>
       </c>
       <c r="C36">
-        <v>0.004800325712857761</v>
+        <v>-0.004814087387053387</v>
       </c>
       <c r="D36">
-        <v>0.001226038145319174</v>
+        <v>0.01095183676829341</v>
       </c>
       <c r="E36">
-        <v>0.01730320199073154</v>
+        <v>0.0009225690835073483</v>
       </c>
       <c r="F36">
-        <v>-0.001250311892214366</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.0007801610883062836</v>
+      </c>
+      <c r="G36">
+        <v>-0.01442554506139118</v>
+      </c>
+      <c r="H36">
+        <v>-0.001858541328429232</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.02133564252399579</v>
+        <v>0.03151699408235315</v>
       </c>
       <c r="C38">
-        <v>0.003075685334211031</v>
+        <v>-0.02219347948739487</v>
       </c>
       <c r="D38">
-        <v>0.01733262559665279</v>
+        <v>-0.008614391036105735</v>
       </c>
       <c r="E38">
-        <v>0.04012057131928978</v>
+        <v>0.004974703565871574</v>
       </c>
       <c r="F38">
-        <v>0.00216931017486682</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.007783586666252523</v>
+      </c>
+      <c r="G38">
+        <v>-0.02185462547331626</v>
+      </c>
+      <c r="H38">
+        <v>0.006578404821638785</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.01719934480909245</v>
+        <v>0.03140038846715708</v>
       </c>
       <c r="C39">
-        <v>0.01648480550625285</v>
+        <v>-0.08324085678373128</v>
       </c>
       <c r="D39">
-        <v>0.06416317211660701</v>
+        <v>0.01122995069979313</v>
       </c>
       <c r="E39">
-        <v>0.04630347471591389</v>
+        <v>-0.005825991572237725</v>
       </c>
       <c r="F39">
-        <v>0.03733395915581003</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.04164403685758063</v>
+      </c>
+      <c r="G39">
+        <v>-0.01206668111703942</v>
+      </c>
+      <c r="H39">
+        <v>-0.01235175272992533</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.02721366178953716</v>
+        <v>0.02009461395115886</v>
       </c>
       <c r="C40">
-        <v>0.004190587278703794</v>
+        <v>-0.03172200841788834</v>
       </c>
       <c r="D40">
-        <v>0.04093390040639344</v>
+        <v>0.01255040685131202</v>
       </c>
       <c r="E40">
-        <v>0.03474808065458891</v>
+        <v>-0.01054031111374969</v>
       </c>
       <c r="F40">
-        <v>0.03937573833381913</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.02446946396295924</v>
+      </c>
+      <c r="G40">
+        <v>-0.0130017512246469</v>
+      </c>
+      <c r="H40">
+        <v>0.0008344924584539646</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.01199255346672751</v>
+        <v>0.01067953407780789</v>
       </c>
       <c r="C41">
-        <v>-0.001397385306714423</v>
+        <v>0.003216558274185428</v>
       </c>
       <c r="D41">
-        <v>-0.009402381727541429</v>
+        <v>0.003013151443954335</v>
       </c>
       <c r="E41">
-        <v>0.004779157630446148</v>
+        <v>0.008744491402892858</v>
       </c>
       <c r="F41">
-        <v>-0.004565222686703434</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.0003366286784570034</v>
+      </c>
+      <c r="G41">
+        <v>-0.009494175112380132</v>
+      </c>
+      <c r="H41">
+        <v>0.003098903799686366</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1378994402487791</v>
+        <v>0.04032043735074584</v>
       </c>
       <c r="C42">
-        <v>-0.07862537418149729</v>
+        <v>-0.05858728086495639</v>
       </c>
       <c r="D42">
-        <v>0.1551033677999778</v>
+        <v>0.104357888068333</v>
       </c>
       <c r="E42">
-        <v>0.1953098752711655</v>
+        <v>-0.0803181269810887</v>
       </c>
       <c r="F42">
-        <v>-0.09707416117844649</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>-0.1298997068055258</v>
+      </c>
+      <c r="G42">
+        <v>0.2224235889770655</v>
+      </c>
+      <c r="H42">
+        <v>-0.9279614738943324</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.01802205219591345</v>
+        <v>0.02680633778610962</v>
       </c>
       <c r="C43">
-        <v>-0.003088611730854313</v>
+        <v>-0.005880370688528658</v>
       </c>
       <c r="D43">
-        <v>-0.005503592684721435</v>
+        <v>0.002908798222810269</v>
       </c>
       <c r="E43">
-        <v>0.008389090671372147</v>
+        <v>0.005755056306887691</v>
       </c>
       <c r="F43">
-        <v>-0.009892494440439182</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.002315031651031749</v>
+      </c>
+      <c r="G43">
+        <v>-0.01136048079406395</v>
+      </c>
+      <c r="H43">
+        <v>0.001792766799457795</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.009698292963957484</v>
+        <v>0.01696414316828271</v>
       </c>
       <c r="C44">
-        <v>0.01166647339241441</v>
+        <v>-0.04868038088419317</v>
       </c>
       <c r="D44">
-        <v>0.01620672122329968</v>
+        <v>0.006497941019878437</v>
       </c>
       <c r="E44">
-        <v>0.07149978449596243</v>
+        <v>-0.01673249751944207</v>
       </c>
       <c r="F44">
-        <v>0.003426223324125275</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.02557903837559867</v>
+      </c>
+      <c r="G44">
+        <v>-0.02894359842459429</v>
+      </c>
+      <c r="H44">
+        <v>-0.01436968763259471</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.007805726633008016</v>
+        <v>0.001252912778943558</v>
       </c>
       <c r="C46">
-        <v>0.005989036316283289</v>
+        <v>-0.01567658960599794</v>
       </c>
       <c r="D46">
-        <v>0.02531636774040327</v>
+        <v>0.01126375363157435</v>
       </c>
       <c r="E46">
-        <v>0.03768309514659756</v>
+        <v>0.006319724795214406</v>
       </c>
       <c r="F46">
-        <v>-0.02379011429033267</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.009164303053587388</v>
+      </c>
+      <c r="G46">
+        <v>-0.0163140994803215</v>
+      </c>
+      <c r="H46">
+        <v>0.02433415041909786</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.06900399607853519</v>
+        <v>0.07241505354518232</v>
       </c>
       <c r="C47">
-        <v>0.006648167777309042</v>
+        <v>-0.05991744850023623</v>
       </c>
       <c r="D47">
-        <v>0.03677018269251622</v>
+        <v>-0.005584065581466693</v>
       </c>
       <c r="E47">
-        <v>-0.03649211058558064</v>
+        <v>0.02075125400634487</v>
       </c>
       <c r="F47">
-        <v>-0.03975132205525798</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.06041684234111579</v>
+      </c>
+      <c r="G47">
+        <v>-0.01493922644991826</v>
+      </c>
+      <c r="H47">
+        <v>0.004763450527513201</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.02680917344178283</v>
+        <v>0.01518243847495156</v>
       </c>
       <c r="C48">
-        <v>0.005431511719333784</v>
+        <v>-0.01008406162133934</v>
       </c>
       <c r="D48">
-        <v>0.006117581973585811</v>
+        <v>0.0007211530286194787</v>
       </c>
       <c r="E48">
-        <v>0.01775123864258546</v>
+        <v>0.007078508493809784</v>
       </c>
       <c r="F48">
-        <v>0.001351864373637106</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.01396091770427821</v>
+      </c>
+      <c r="G48">
+        <v>-0.01649559718407036</v>
+      </c>
+      <c r="H48">
+        <v>0.002016065614693079</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.06880993063467707</v>
+        <v>0.07599235195558389</v>
       </c>
       <c r="C50">
-        <v>0.03758514400178555</v>
+        <v>-0.06109269813509619</v>
       </c>
       <c r="D50">
-        <v>0.04786500239325674</v>
+        <v>-0.004422907061331248</v>
       </c>
       <c r="E50">
-        <v>-0.007945987209487453</v>
+        <v>0.02053099245024562</v>
       </c>
       <c r="F50">
-        <v>-0.0647517418497273</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.05763239879058884</v>
+      </c>
+      <c r="G50">
+        <v>-0.03928835254855932</v>
+      </c>
+      <c r="H50">
+        <v>0.006807850757843322</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01639472955557025</v>
+        <v>0.01788586485086515</v>
       </c>
       <c r="C51">
-        <v>0.005805484572319101</v>
+        <v>-0.02861381270756253</v>
       </c>
       <c r="D51">
-        <v>-0.0153865807317113</v>
+        <v>0.008420313016580552</v>
       </c>
       <c r="E51">
-        <v>0.05780535226029856</v>
+        <v>-0.007303714456684136</v>
       </c>
       <c r="F51">
-        <v>0.006966432113811348</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.03481695112298645</v>
+      </c>
+      <c r="G51">
+        <v>-0.03554003189369839</v>
+      </c>
+      <c r="H51">
+        <v>0.005643694013561767</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.090004992882115</v>
+        <v>0.09855010192962792</v>
       </c>
       <c r="C53">
-        <v>0.02635331166478201</v>
+        <v>-0.07412682054961778</v>
       </c>
       <c r="D53">
-        <v>0.06594607083129218</v>
+        <v>-0.006754976516123117</v>
       </c>
       <c r="E53">
-        <v>-0.05945527543207246</v>
+        <v>0.04096981316463331</v>
       </c>
       <c r="F53">
-        <v>-0.02734973120217704</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.06875719389316638</v>
+      </c>
+      <c r="G53">
+        <v>-0.01647014319969238</v>
+      </c>
+      <c r="H53">
+        <v>-0.003456725518211808</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02737559529198477</v>
+        <v>0.0282321143321883</v>
       </c>
       <c r="C54">
-        <v>0.009423166368143485</v>
+        <v>-0.002979229143140015</v>
       </c>
       <c r="D54">
-        <v>0.0008837098448518123</v>
+        <v>-0.00478839676092883</v>
       </c>
       <c r="E54">
-        <v>0.002914552483215668</v>
+        <v>3.422406547525368e-05</v>
       </c>
       <c r="F54">
-        <v>-0.007114440860880562</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.005225955745645036</v>
+      </c>
+      <c r="G54">
+        <v>-0.02438542292793103</v>
+      </c>
+      <c r="H54">
+        <v>0.01968219960098367</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.06341230824976939</v>
+        <v>0.07341147345412032</v>
       </c>
       <c r="C55">
-        <v>0.01863046563494284</v>
+        <v>-0.06750327570244806</v>
       </c>
       <c r="D55">
-        <v>0.07586739719543616</v>
+        <v>-0.005577239372755743</v>
       </c>
       <c r="E55">
-        <v>-0.03790910393230135</v>
+        <v>0.03024063617753104</v>
       </c>
       <c r="F55">
-        <v>-0.04938162440985586</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.06299417117549655</v>
+      </c>
+      <c r="G55">
+        <v>-0.005439389695483046</v>
+      </c>
+      <c r="H55">
+        <v>0.003092255482455898</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1274488675755125</v>
+        <v>0.1481846723489833</v>
       </c>
       <c r="C56">
-        <v>0.0243189918134089</v>
+        <v>-0.09548839438446055</v>
       </c>
       <c r="D56">
-        <v>0.09493979504214865</v>
+        <v>-0.0158138129225348</v>
       </c>
       <c r="E56">
-        <v>-0.09128232976953744</v>
+        <v>0.04327781538222361</v>
       </c>
       <c r="F56">
-        <v>-0.02166167163742252</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.105761861524664</v>
+      </c>
+      <c r="G56">
+        <v>0.005382966684671387</v>
+      </c>
+      <c r="H56">
+        <v>-0.003273009922112392</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.03860544811656152</v>
+        <v>0.01596877320904838</v>
       </c>
       <c r="C57">
-        <v>-0.002606486351368103</v>
+        <v>-0.0110265329059523</v>
       </c>
       <c r="D57">
-        <v>0.02620894007419825</v>
+        <v>0.02352705743534774</v>
       </c>
       <c r="E57">
-        <v>0.0418044913863838</v>
+        <v>-0.03149561456708965</v>
       </c>
       <c r="F57">
-        <v>0.01464723827470942</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.01654822885725117</v>
+      </c>
+      <c r="G57">
+        <v>-0.02183639372698531</v>
+      </c>
+      <c r="H57">
+        <v>-0.004701726857216459</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.171159364614797</v>
+        <v>0.0725200331525641</v>
       </c>
       <c r="C58">
-        <v>-0.1103353418355088</v>
+        <v>-0.07932948115600277</v>
       </c>
       <c r="D58">
-        <v>0.1720061064501928</v>
+        <v>0.02050953455148296</v>
       </c>
       <c r="E58">
-        <v>0.5917088985239823</v>
+        <v>-0.946726197025469</v>
       </c>
       <c r="F58">
-        <v>-0.5769585362719359</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.2168403629360886</v>
+      </c>
+      <c r="G58">
+        <v>-0.06667304309237183</v>
+      </c>
+      <c r="H58">
+        <v>0.1006790626970807</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1389658996129418</v>
+        <v>0.1484327738689508</v>
       </c>
       <c r="C59">
-        <v>-0.06510395674624173</v>
+        <v>0.2172495169425247</v>
       </c>
       <c r="D59">
-        <v>-0.1929403140688753</v>
+        <v>-0.01874423545789707</v>
       </c>
       <c r="E59">
-        <v>0.04222640886328093</v>
+        <v>-0.01476645002675663</v>
       </c>
       <c r="F59">
-        <v>0.0548237802443317</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.01103047864564298</v>
+      </c>
+      <c r="G59">
+        <v>-0.01965993360532055</v>
+      </c>
+      <c r="H59">
+        <v>0.001025594129878399</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2115895417975002</v>
+        <v>0.2950188442439761</v>
       </c>
       <c r="C60">
-        <v>-0.0354092941236481</v>
+        <v>-0.07743972636558427</v>
       </c>
       <c r="D60">
-        <v>0.02983941071436274</v>
+        <v>0.004407772689228408</v>
       </c>
       <c r="E60">
-        <v>0.1613164391254508</v>
+        <v>-0.0185015589585134</v>
       </c>
       <c r="F60">
-        <v>0.3954762030023189</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.3913063439335172</v>
+      </c>
+      <c r="G60">
+        <v>0.04510756420399339</v>
+      </c>
+      <c r="H60">
+        <v>0.0569927118404854</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.0300428032779833</v>
+        <v>0.03198756684744394</v>
       </c>
       <c r="C61">
-        <v>0.01056670168905043</v>
+        <v>-0.0636756657731191</v>
       </c>
       <c r="D61">
-        <v>0.05567833056481739</v>
+        <v>0.004608931001501345</v>
       </c>
       <c r="E61">
-        <v>0.02967955341353111</v>
+        <v>-0.0007045829131767907</v>
       </c>
       <c r="F61">
-        <v>0.05190882629749996</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.02766058279646976</v>
+      </c>
+      <c r="G61">
+        <v>-0.01451193998460482</v>
+      </c>
+      <c r="H61">
+        <v>0.001457061857298426</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01644075291101055</v>
+        <v>0.01352889926812959</v>
       </c>
       <c r="C63">
-        <v>0.009488162613176161</v>
+        <v>-0.0283939859595661</v>
       </c>
       <c r="D63">
-        <v>0.02132530653343806</v>
+        <v>0.007430242288527227</v>
       </c>
       <c r="E63">
-        <v>0.003881786946817063</v>
+        <v>0.01629211154154558</v>
       </c>
       <c r="F63">
-        <v>-0.02424920207398624</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.005867675387529441</v>
+      </c>
+      <c r="G63">
+        <v>-0.01956616056420958</v>
+      </c>
+      <c r="H63">
+        <v>0.00565774825554459</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.04848210561103932</v>
+        <v>0.04731210465177044</v>
       </c>
       <c r="C64">
-        <v>0.008793321596748959</v>
+        <v>-0.03519772790721443</v>
       </c>
       <c r="D64">
-        <v>0.04127750814576751</v>
+        <v>0.003899428350536363</v>
       </c>
       <c r="E64">
-        <v>0.01368130320415805</v>
+        <v>0.01700172489727504</v>
       </c>
       <c r="F64">
-        <v>0.01635962587260966</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.0136746941979166</v>
+      </c>
+      <c r="G64">
+        <v>-0.01082930185588279</v>
+      </c>
+      <c r="H64">
+        <v>-0.03228995487784373</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.06688802475507738</v>
+        <v>0.07772130435190659</v>
       </c>
       <c r="C65">
-        <v>0.01547834936581635</v>
+        <v>-0.06744780084365817</v>
       </c>
       <c r="D65">
-        <v>0.05349434083331871</v>
+        <v>0.01460572250933233</v>
       </c>
       <c r="E65">
-        <v>0.02319491411921182</v>
+        <v>0.002520213010052938</v>
       </c>
       <c r="F65">
-        <v>0.05664634476491127</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.04071412155964477</v>
+      </c>
+      <c r="G65">
+        <v>-0.006856622615248747</v>
+      </c>
+      <c r="H65">
+        <v>0.01474184126081747</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.03919597065850131</v>
+        <v>0.0531838142467331</v>
       </c>
       <c r="C66">
-        <v>0.001402484055606021</v>
+        <v>-0.1176043310726306</v>
       </c>
       <c r="D66">
-        <v>0.08586898628944728</v>
+        <v>0.01030645351927044</v>
       </c>
       <c r="E66">
-        <v>0.02631680061126156</v>
+        <v>-0.006009446105125133</v>
       </c>
       <c r="F66">
-        <v>0.04854736720262231</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.04882108077393375</v>
+      </c>
+      <c r="G66">
+        <v>-0.000749931380458406</v>
+      </c>
+      <c r="H66">
+        <v>0.009216386971950241</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.03823047626935689</v>
+        <v>0.05790563456631839</v>
       </c>
       <c r="C67">
-        <v>0.0004094801621472636</v>
+        <v>-0.0236117610835536</v>
       </c>
       <c r="D67">
-        <v>0.0172402942503153</v>
+        <v>-0.007794671223775666</v>
       </c>
       <c r="E67">
-        <v>0.01954042632882323</v>
+        <v>0.01079144374113742</v>
       </c>
       <c r="F67">
-        <v>0.01095763594135902</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.005629912914375242</v>
+      </c>
+      <c r="G67">
+        <v>-0.02116450127799008</v>
+      </c>
+      <c r="H67">
+        <v>0.01185577808862015</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1213282995827439</v>
+        <v>0.1175735161147504</v>
       </c>
       <c r="C68">
-        <v>-0.06350946874249494</v>
+        <v>0.2687544589351591</v>
       </c>
       <c r="D68">
-        <v>-0.2106317887608135</v>
+        <v>0.0001998022565109345</v>
       </c>
       <c r="E68">
-        <v>0.006585436959454818</v>
+        <v>-0.01512681560042947</v>
       </c>
       <c r="F68">
-        <v>0.005440663138803543</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.01909929343272729</v>
+      </c>
+      <c r="G68">
+        <v>-0.01888427037124338</v>
+      </c>
+      <c r="H68">
+        <v>-0.01657445504453746</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05122963794825834</v>
+        <v>0.07529770347679687</v>
       </c>
       <c r="C69">
-        <v>0.008170626723607062</v>
+        <v>-0.05699614759411297</v>
       </c>
       <c r="D69">
-        <v>0.04206018734638316</v>
+        <v>-0.01041842929844263</v>
       </c>
       <c r="E69">
-        <v>-0.02667731154764606</v>
+        <v>0.03623210217499635</v>
       </c>
       <c r="F69">
-        <v>-0.01262057324523115</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.03674156891151763</v>
+      </c>
+      <c r="G69">
+        <v>-0.01081916336713398</v>
+      </c>
+      <c r="H69">
+        <v>0.01861975753712811</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1121533178887036</v>
+        <v>0.1202823637745789</v>
       </c>
       <c r="C71">
-        <v>-0.04960245807860838</v>
+        <v>0.2264206072918249</v>
       </c>
       <c r="D71">
-        <v>-0.2082147756034516</v>
+        <v>-0.00891593801722909</v>
       </c>
       <c r="E71">
-        <v>0.02242451502384935</v>
+        <v>-0.02038399331622822</v>
       </c>
       <c r="F71">
-        <v>-0.03755627073015057</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.0242492069029928</v>
+      </c>
+      <c r="G71">
+        <v>-0.03217769578799404</v>
+      </c>
+      <c r="H71">
+        <v>-0.02884971473772499</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1197756831478685</v>
+        <v>0.08289466142241356</v>
       </c>
       <c r="C72">
-        <v>0.01119716474226729</v>
+        <v>-0.08159733037242077</v>
       </c>
       <c r="D72">
-        <v>0.1401656416661801</v>
+        <v>-0.009720856170061591</v>
       </c>
       <c r="E72">
-        <v>0.1146820811219729</v>
+        <v>0.02063158920476664</v>
       </c>
       <c r="F72">
-        <v>0.1768772294847391</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.0347129987040008</v>
+      </c>
+      <c r="G72">
+        <v>0.007465477497638209</v>
+      </c>
+      <c r="H72">
+        <v>0.005818759127898787</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2619140863533204</v>
+        <v>0.3982737502853252</v>
       </c>
       <c r="C73">
-        <v>-0.09063007804746533</v>
+        <v>-0.09282666149593936</v>
       </c>
       <c r="D73">
-        <v>0.07415096743384045</v>
+        <v>0.008682072425108218</v>
       </c>
       <c r="E73">
-        <v>0.2379118658922612</v>
+        <v>-0.07062023196091279</v>
       </c>
       <c r="F73">
-        <v>0.4015605557685544</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.5345694819540477</v>
+      </c>
+      <c r="G73">
+        <v>0.09200178090028586</v>
+      </c>
+      <c r="H73">
+        <v>-0.06110056121079499</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.115855864965071</v>
+        <v>0.1174908794381877</v>
       </c>
       <c r="C74">
-        <v>0.01518191109387487</v>
+        <v>-0.1144266412667397</v>
       </c>
       <c r="D74">
-        <v>0.09724607719614801</v>
+        <v>-0.01108368161149065</v>
       </c>
       <c r="E74">
-        <v>-0.07764219306074743</v>
+        <v>0.04078573069178877</v>
       </c>
       <c r="F74">
-        <v>-0.009077792668809499</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.07263580509752403</v>
+      </c>
+      <c r="G74">
+        <v>-0.008499470298212361</v>
+      </c>
+      <c r="H74">
+        <v>-0.002502638619071735</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2432601950584211</v>
+        <v>0.2603582320669074</v>
       </c>
       <c r="C75">
-        <v>0.01600093541902944</v>
+        <v>-0.1381512544212309</v>
       </c>
       <c r="D75">
-        <v>0.153119779193617</v>
+        <v>-0.03259436737046671</v>
       </c>
       <c r="E75">
-        <v>-0.1624699940311225</v>
+        <v>0.0610735097688947</v>
       </c>
       <c r="F75">
-        <v>-0.02431650852687193</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.2195052368500127</v>
+      </c>
+      <c r="G75">
+        <v>0.03343702071565476</v>
+      </c>
+      <c r="H75">
+        <v>0.002200115250580188</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2260854129621699</v>
+        <v>0.1487391225986295</v>
       </c>
       <c r="C76">
-        <v>0.03969561745738234</v>
+        <v>-0.1184565859929301</v>
       </c>
       <c r="D76">
-        <v>0.15580489107988</v>
+        <v>-0.02438484290940292</v>
       </c>
       <c r="E76">
-        <v>-0.2268677650699626</v>
+        <v>0.06907085935531022</v>
       </c>
       <c r="F76">
-        <v>-0.04607085520998178</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.1471329339765508</v>
+      </c>
+      <c r="G76">
+        <v>0.001346615715705909</v>
+      </c>
+      <c r="H76">
+        <v>0.008896776731537916</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.05306091764427134</v>
+        <v>0.05991497821534569</v>
       </c>
       <c r="C77">
-        <v>0.003690412693917437</v>
+        <v>-0.06190044167299154</v>
       </c>
       <c r="D77">
-        <v>0.05397645706901727</v>
+        <v>0.0110941721665008</v>
       </c>
       <c r="E77">
-        <v>0.06102445644522575</v>
+        <v>-0.03010596296414106</v>
       </c>
       <c r="F77">
-        <v>-0.109723982955677</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.004335662376524893</v>
+      </c>
+      <c r="G77">
+        <v>-0.02859004684016047</v>
+      </c>
+      <c r="H77">
+        <v>-0.007799835124694047</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.03102660668563345</v>
+        <v>0.04446966189399038</v>
       </c>
       <c r="C78">
-        <v>0.0129051735522155</v>
+        <v>-0.05377755718290139</v>
       </c>
       <c r="D78">
-        <v>0.04624126318043682</v>
+        <v>0.00472311092083204</v>
       </c>
       <c r="E78">
-        <v>0.06273023352648671</v>
+        <v>-0.01572720781968489</v>
       </c>
       <c r="F78">
-        <v>0.03257197189496683</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.04526320050079927</v>
+      </c>
+      <c r="G78">
+        <v>-0.02386937647037819</v>
+      </c>
+      <c r="H78">
+        <v>0.01156027757261242</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,90 +2751,120 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.1794209928869795</v>
+        <v>0.06797075087025867</v>
       </c>
       <c r="C80">
-        <v>0.9346286133904371</v>
+        <v>-0.08250599980534867</v>
       </c>
       <c r="D80">
-        <v>-0.2075768086821631</v>
+        <v>0.01285179913083703</v>
       </c>
       <c r="E80">
-        <v>0.1297392801324664</v>
+        <v>0.072474728139355</v>
       </c>
       <c r="F80">
-        <v>-0.02187949215334484</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.01248570169603265</v>
+      </c>
+      <c r="G80">
+        <v>-0.9277011012879692</v>
+      </c>
+      <c r="H80">
+        <v>-0.2140366274737716</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1862626564166278</v>
+        <v>0.1511856850552707</v>
       </c>
       <c r="C81">
-        <v>0.02335939050964882</v>
+        <v>-0.08758082718412669</v>
       </c>
       <c r="D81">
-        <v>0.1132932856409789</v>
+        <v>-0.01851103817975392</v>
       </c>
       <c r="E81">
-        <v>-0.1258848634828809</v>
+        <v>0.04422399214986172</v>
       </c>
       <c r="F81">
-        <v>-0.06394476170949935</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.1407039073884307</v>
+      </c>
+      <c r="G81">
+        <v>-0.005548709282538726</v>
+      </c>
+      <c r="H81">
+        <v>0.007956572104971662</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.03888972089441942</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.02742969604307646</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.002250830672530569</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>0.02131156959165263</v>
       </c>
       <c r="F82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>0.0001915012748472957</v>
+      </c>
+      <c r="G82">
+        <v>-0.0003742124642550774</v>
+      </c>
+      <c r="H82">
+        <v>0.01570263062507617</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.03592799757870768</v>
+        <v>0.03092344867237245</v>
       </c>
       <c r="C83">
-        <v>-0.002955055894366819</v>
+        <v>-0.018724879653666</v>
       </c>
       <c r="D83">
-        <v>0.01514584231099515</v>
+        <v>0.004564428621213353</v>
       </c>
       <c r="E83">
-        <v>0.03774375233086585</v>
+        <v>-0.02279630260282514</v>
       </c>
       <c r="F83">
-        <v>-0.01422691984452907</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.02245230597200337</v>
+      </c>
+      <c r="G83">
+        <v>-0.02596090421432263</v>
+      </c>
+      <c r="H83">
+        <v>0.01160339131028896</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2279803067922976</v>
+        <v>0.2482629326321336</v>
       </c>
       <c r="C85">
-        <v>0.01203596712291295</v>
+        <v>-0.145627240143814</v>
       </c>
       <c r="D85">
-        <v>0.1834124015727013</v>
+        <v>-0.022226417603073</v>
       </c>
       <c r="E85">
-        <v>-0.1822866439395259</v>
+        <v>0.1050801691435319</v>
       </c>
       <c r="F85">
-        <v>-0.03952374030709838</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.2077121736377932</v>
+      </c>
+      <c r="G85">
+        <v>0.06515907240578513</v>
+      </c>
+      <c r="H85">
+        <v>0.002716396797149196</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.01430560651929598</v>
+        <v>0.009787155575013579</v>
       </c>
       <c r="C86">
-        <v>0.0105792359945501</v>
+        <v>-0.0239705360607806</v>
       </c>
       <c r="D86">
-        <v>0.024484506858435</v>
+        <v>0.009420023746836611</v>
       </c>
       <c r="E86">
-        <v>0.05481350268873639</v>
+        <v>-0.01634717607295726</v>
       </c>
       <c r="F86">
-        <v>-0.02359977487686201</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.0207539971857907</v>
+      </c>
+      <c r="G86">
+        <v>-0.04576268602482771</v>
+      </c>
+      <c r="H86">
+        <v>-0.03221282191923331</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.0294591540751626</v>
+        <v>0.01869265923117873</v>
       </c>
       <c r="C87">
-        <v>0.009485468947721636</v>
+        <v>-0.02634012845540498</v>
       </c>
       <c r="D87">
-        <v>0.0295599364370975</v>
+        <v>0.01088113470650035</v>
       </c>
       <c r="E87">
-        <v>0.102708250308452</v>
+        <v>-0.07683732430181181</v>
       </c>
       <c r="F87">
-        <v>0.03354582292884677</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.06161035914133623</v>
+      </c>
+      <c r="G87">
+        <v>-0.03645603134737444</v>
+      </c>
+      <c r="H87">
+        <v>-0.009440565365043318</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.04936129391371612</v>
+        <v>0.0841464476045003</v>
       </c>
       <c r="C88">
-        <v>-0.005893170670193061</v>
+        <v>-0.05203382851781876</v>
       </c>
       <c r="D88">
-        <v>0.008381330493375043</v>
+        <v>0.02041250550368082</v>
       </c>
       <c r="E88">
-        <v>-0.001018065239527355</v>
+        <v>0.02124239974213882</v>
       </c>
       <c r="F88">
-        <v>0.02282274399863473</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.00690821517136913</v>
+      </c>
+      <c r="G88">
+        <v>-0.01970321519426509</v>
+      </c>
+      <c r="H88">
+        <v>0.02043461668772914</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.2222993252515667</v>
+        <v>0.2150437657371972</v>
       </c>
       <c r="C89">
-        <v>-0.122909732337737</v>
+        <v>0.3775250620807521</v>
       </c>
       <c r="D89">
-        <v>-0.3549015044244839</v>
+        <v>-0.012131262075887</v>
       </c>
       <c r="E89">
-        <v>-0.009836317834165855</v>
+        <v>0.007212482976269239</v>
       </c>
       <c r="F89">
-        <v>-0.008309298117266535</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.02578800868988371</v>
+      </c>
+      <c r="G89">
+        <v>-0.02529517161299861</v>
+      </c>
+      <c r="H89">
+        <v>0.005035170726196208</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.1403856118343321</v>
+        <v>0.1769526042561209</v>
       </c>
       <c r="C90">
-        <v>-0.1087506384411144</v>
+        <v>0.3406327797499943</v>
       </c>
       <c r="D90">
-        <v>-0.3058685095003078</v>
+        <v>-0.01400198552448957</v>
       </c>
       <c r="E90">
-        <v>-0.05162539543075732</v>
+        <v>-0.004823941103860166</v>
       </c>
       <c r="F90">
-        <v>-0.06292510702634874</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.04364920072157358</v>
+      </c>
+      <c r="G90">
+        <v>-0.004038008364146909</v>
+      </c>
+      <c r="H90">
+        <v>-0.007964119863182325</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.2500665846503567</v>
+        <v>0.2157551379882918</v>
       </c>
       <c r="C91">
-        <v>0.01909387800065099</v>
+        <v>-0.129003877540241</v>
       </c>
       <c r="D91">
-        <v>0.1873526500041708</v>
+        <v>-0.02739636593014229</v>
       </c>
       <c r="E91">
-        <v>-0.2410416864053203</v>
+        <v>0.08676586509936778</v>
       </c>
       <c r="F91">
-        <v>-0.0425579063812864</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.1980975766300781</v>
+      </c>
+      <c r="G91">
+        <v>0.02106550073688864</v>
+      </c>
+      <c r="H91">
+        <v>0.002644864118932841</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.2884563218348369</v>
+        <v>0.2125576279347812</v>
       </c>
       <c r="C92">
-        <v>-0.1014001402095186</v>
+        <v>0.2733125285962461</v>
       </c>
       <c r="D92">
-        <v>-0.2692834075493114</v>
+        <v>-0.05791839115620202</v>
       </c>
       <c r="E92">
-        <v>-0.1404249919381955</v>
+        <v>-0.0001246069575998438</v>
       </c>
       <c r="F92">
-        <v>-0.2344516331581319</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.1412168224773977</v>
+      </c>
+      <c r="G92">
+        <v>-0.05030233022976203</v>
+      </c>
+      <c r="H92">
+        <v>0.0103087659643908</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2010689574944693</v>
+        <v>0.202106069289951</v>
       </c>
       <c r="C93">
-        <v>-0.1386359369180656</v>
+        <v>0.3384692101735854</v>
       </c>
       <c r="D93">
-        <v>-0.3519105498829944</v>
+        <v>-0.02084911291065942</v>
       </c>
       <c r="E93">
-        <v>-0.01737873900722364</v>
+        <v>-0.01725364152135943</v>
       </c>
       <c r="F93">
-        <v>0.0004370748856902025</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.01367476843170932</v>
+      </c>
+      <c r="G93">
+        <v>0.001186696237749405</v>
+      </c>
+      <c r="H93">
+        <v>-0.03713036353780225</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.302264233304556</v>
+        <v>0.2883707003990756</v>
       </c>
       <c r="C94">
-        <v>-0.01755369258395677</v>
+        <v>-0.1489436105163843</v>
       </c>
       <c r="D94">
-        <v>0.1693501894809965</v>
+        <v>-0.01582565276466924</v>
       </c>
       <c r="E94">
-        <v>-0.2379409744508769</v>
+        <v>0.09846099365456458</v>
       </c>
       <c r="F94">
-        <v>-0.1250804985548242</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.3630541904061211</v>
+      </c>
+      <c r="G94">
+        <v>0.129853735006932</v>
+      </c>
+      <c r="H94">
+        <v>0.2100806554584152</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.08301575170904868</v>
+        <v>0.07672764239319631</v>
       </c>
       <c r="C95">
-        <v>-0.07034053129637241</v>
+        <v>-0.08104655232506219</v>
       </c>
       <c r="D95">
-        <v>0.05608791900101823</v>
+        <v>-0.007554885403495286</v>
       </c>
       <c r="E95">
-        <v>0.01893205356152601</v>
+        <v>-0.07666104843384973</v>
       </c>
       <c r="F95">
-        <v>0.08086709289687943</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.1446997748053194</v>
+      </c>
+      <c r="G95">
+        <v>0.06359290897157398</v>
+      </c>
+      <c r="H95">
+        <v>-0.02941765093707719</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2169366095490871</v>
+        <v>0.2167108355625445</v>
       </c>
       <c r="C98">
-        <v>-0.06017762561077843</v>
+        <v>-0.04162395962229284</v>
       </c>
       <c r="D98">
-        <v>0.0203395757445478</v>
+        <v>-0.02067903473497692</v>
       </c>
       <c r="E98">
-        <v>0.2402131993196426</v>
+        <v>-0.0677669613184355</v>
       </c>
       <c r="F98">
-        <v>0.3569345809378971</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.2596360022394391</v>
+      </c>
+      <c r="G98">
+        <v>0.02897372187146234</v>
+      </c>
+      <c r="H98">
+        <v>-0.04146808216237018</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.02789479631374839</v>
+        <v>0.01410554135420467</v>
       </c>
       <c r="C101">
-        <v>0.0041627483538802</v>
+        <v>-0.01983594285726716</v>
       </c>
       <c r="D101">
-        <v>0.02279740747741533</v>
+        <v>0.008063441311433555</v>
       </c>
       <c r="E101">
-        <v>0.1197571746523989</v>
+        <v>-0.03407188635030822</v>
       </c>
       <c r="F101">
-        <v>-0.1715407877238513</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.02511929540694604</v>
+      </c>
+      <c r="G101">
+        <v>-0.03021982593526053</v>
+      </c>
+      <c r="H101">
+        <v>0.0228572631450477</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1254696167680534</v>
+        <v>0.1246654110659003</v>
       </c>
       <c r="C102">
-        <v>0.01140511702212432</v>
+        <v>-0.07675016397147832</v>
       </c>
       <c r="D102">
-        <v>0.08226531601793739</v>
+        <v>-0.001281458334270485</v>
       </c>
       <c r="E102">
-        <v>-0.1058978947594149</v>
+        <v>0.04628965027174511</v>
       </c>
       <c r="F102">
-        <v>-0.04040328574361331</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.06110153782345332</v>
+      </c>
+      <c r="G102">
+        <v>0.01790193931233385</v>
+      </c>
+      <c r="H102">
+        <v>-0.0105323670747534</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.02938061540408458</v>
+        <v>0.006214591721180744</v>
       </c>
       <c r="C103">
-        <v>0.01929145713524456</v>
+        <v>-0.005960055708603711</v>
       </c>
       <c r="D103">
-        <v>0.02314687040920902</v>
+        <v>0.0002997265761672745</v>
       </c>
       <c r="E103">
-        <v>-0.01200092944847049</v>
+        <v>0.001633579313007694</v>
       </c>
       <c r="F103">
-        <v>-0.001349693612487395</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.01033401894856764</v>
+      </c>
+      <c r="G103">
+        <v>-0.01405196984765914</v>
+      </c>
+      <c r="H103">
+        <v>-0.00703333110983948</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.0481130913742928</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.04894229916224788</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.9853566503441685</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.04387905679157075</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.03529586495387164</v>
+      </c>
+      <c r="G104">
+        <v>-0.000421371992743564</v>
+      </c>
+      <c r="H104">
+        <v>0.09914824311257094</v>
       </c>
     </row>
   </sheetData>
